--- a/notebooks/Uncertainties.xlsx
+++ b/notebooks/Uncertainties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreavargasf/ua_pmlca/ua_pmlca/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C6BDB1-96D4-6A43-9EB6-53849BD47970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C0E724-BEAD-BA4D-B201-D6B7E9336331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38320" yWindow="1620" windowWidth="26840" windowHeight="22260" activeTab="1" xr2:uid="{ACB14307-0FC4-4943-AFDD-3C0C35984197}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" activeTab="3" xr2:uid="{ACB14307-0FC4-4943-AFDD-3C0C35984197}"/>
   </bookViews>
   <sheets>
     <sheet name="DZOAB, B" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="DZOAB, A" sheetId="1" r:id="rId3"/>
     <sheet name="DZOAB, A, PVI" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="39">
   <si>
     <t>name</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>C1_removal</t>
+  </si>
+  <si>
+    <t>C4_breaker</t>
+  </si>
+  <si>
+    <t>C3_breaker</t>
   </si>
 </sst>
 </file>
@@ -501,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0AF87F-0761-0E43-B0C0-4042979880A4}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -955,6 +961,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>-8.5951547328859501</v>
+      </c>
+      <c r="C23">
+        <v>3.741657386773941E-2</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -962,10 +988,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7213C600-1E91-9347-AE04-57139CF75106}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1482,6 +1508,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>-8.5951547328859501</v>
+      </c>
+      <c r="C26">
+        <v>3.741657386773941E-2</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1489,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67BA0DF4-F437-514C-B607-249B1C8214C7}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2020,6 +2066,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>-8.5951547328859501</v>
+      </c>
+      <c r="C27">
+        <v>3.741657386773941E-2</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2027,10 +2093,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258B5242-1E25-ED49-8263-CBC0B29EEBC1}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2618,6 +2684,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>-8.5951547328859501</v>
+      </c>
+      <c r="C30">
+        <v>3.741657386773941E-2</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notebooks/Uncertainties.xlsx
+++ b/notebooks/Uncertainties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreavargasf/ua_pmlca/ua_pmlca/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C0E724-BEAD-BA4D-B201-D6B7E9336331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36483D00-85FE-5D46-AE3D-59E7E95606EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" activeTab="3" xr2:uid="{ACB14307-0FC4-4943-AFDD-3C0C35984197}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{ACB14307-0FC4-4943-AFDD-3C0C35984197}"/>
   </bookViews>
   <sheets>
     <sheet name="DZOAB, B" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="38">
   <si>
     <t>name</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>C1_removal</t>
-  </si>
-  <si>
-    <t>C4_breaker</t>
   </si>
   <si>
     <t>C3_breaker</t>
@@ -509,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0AF87F-0761-0E43-B0C0-4042979880A4}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1510,7 +1507,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <v>-8.5951547328859501</v>
@@ -2068,7 +2065,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>-8.5951547328859501</v>
@@ -2095,7 +2092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258B5242-1E25-ED49-8263-CBC0B29EEBC1}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -2686,7 +2683,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>-8.5951547328859501</v>
